--- a/Excels/Tickets.xlsx
+++ b/Excels/Tickets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Tickets\tickets_web_app\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7494C7-80D3-4B89-9E51-E5BA11CDBB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9759137-D9D4-483A-8111-D25CFE86B9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0FA381-D708-4478-922F-AE5A18698AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +519,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -684,6 +690,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C99-E1B2-42BC-9FEB-41DADA2E2C18}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1434,7 +1442,7 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="27" t="s">
         <v>41</v>
       </c>
       <c r="I23" s="5">
@@ -1445,7 +1453,7 @@
       <c r="G24" s="1">
         <v>2</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="28" t="s">
         <v>43</v>
       </c>
       <c r="I24" s="5">
@@ -1457,7 +1465,7 @@
       <c r="G25" s="1">
         <v>3</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="28" t="s">
         <v>100</v>
       </c>
       <c r="I25" s="5">
@@ -1468,7 +1476,7 @@
       <c r="G26" s="1">
         <v>4</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="28" t="s">
         <v>105</v>
       </c>
       <c r="I26" s="5">
@@ -1479,7 +1487,7 @@
       <c r="G27" s="1">
         <v>5</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="27" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="5">
@@ -1490,7 +1498,7 @@
       <c r="G28" s="1">
         <v>6</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="28" t="s">
         <v>123</v>
       </c>
       <c r="I28" s="5">
@@ -3380,7 +3388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58173DB-3A8F-42DC-89C3-236FD77BCCD1}">
   <dimension ref="C1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
